--- a/AUC_ROC_results/auc/AUC_AD_HAPLO_ALL_performance.xlsx
+++ b/AUC_ROC_results/auc/AUC_AD_HAPLO_ALL_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/auc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_0F39E2E3F613C8264F2C4C2D55CD11B86014EA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08C6B5D-EB51-4971-ACCF-70B9BA507061}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,29 +537,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9725197354384467</v>
+        <v>0.97251973543844672</v>
       </c>
       <c r="C2">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9717089822914445</v>
+        <v>0.97170898229144453</v>
       </c>
       <c r="C3">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -547,282 +570,282 @@
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9653047436170969</v>
+        <v>0.96530474361709695</v>
       </c>
       <c r="C5">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.9624244363843255</v>
+        <v>0.96242443638432551</v>
       </c>
       <c r="C6">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9561101487706992</v>
+        <v>0.95611014877069922</v>
       </c>
       <c r="C7">
-        <v>99.08256880733946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>99.082568807339456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9553232344783443</v>
+        <v>0.95532323447834433</v>
       </c>
       <c r="C8">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9546022311237454</v>
+        <v>0.95460223112374543</v>
       </c>
       <c r="C9">
-        <v>98.68938401048493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>98.689384010484929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9506914767331434</v>
+        <v>0.95069147673314336</v>
       </c>
       <c r="C10">
-        <v>83.35517693315857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>83.355176933158575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.942457862171965</v>
+        <v>0.94245786217196503</v>
       </c>
       <c r="C11">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9394403898510604</v>
+        <v>0.93944038985106038</v>
       </c>
       <c r="C12">
-        <v>95.41284403669725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>95.412844036697251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9353993314842473</v>
+        <v>0.93539933148424725</v>
       </c>
       <c r="C13">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9293439967457706</v>
+        <v>0.92934399674577062</v>
       </c>
       <c r="C14">
-        <v>98.03407601572739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>98.034076015727393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.9199306734274398</v>
+        <v>0.91993067342743984</v>
       </c>
       <c r="C15">
-        <v>98.82044560943643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>98.820445609436433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.9184337314638509</v>
+        <v>0.91843373146385088</v>
       </c>
       <c r="C16">
         <v>98.42726081258192</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.9179788066282626</v>
+        <v>0.91797880662826259</v>
       </c>
       <c r="C17">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.9148380474452553</v>
+        <v>0.91483804744525532</v>
       </c>
       <c r="C18">
-        <v>95.80602883355176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>95.806028833551764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.9119360485809962</v>
+        <v>0.91193604858099619</v>
       </c>
       <c r="C19">
-        <v>98.03407601572739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>98.034076015727393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.9091228604142209</v>
+        <v>0.90912286041422086</v>
       </c>
       <c r="C20">
-        <v>98.1651376146789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>98.165137614678898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8892184055188109</v>
+        <v>0.88921840551881093</v>
       </c>
       <c r="C21">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8880398418491484</v>
+        <v>0.88803984184914841</v>
       </c>
       <c r="C22">
-        <v>95.80602883355176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>95.806028833551764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8879738283194651</v>
+        <v>0.88797382831946514</v>
       </c>
       <c r="C23">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.884681032643482</v>
+        <v>0.88468103264348197</v>
       </c>
       <c r="C24">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.8629991210675034</v>
+        <v>0.86299912106750343</v>
       </c>
       <c r="C25">
-        <v>98.03407601572739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>98.034076015727393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.8594018917573429</v>
+        <v>0.85940189175734294</v>
       </c>
       <c r="C26">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.8357778284671533</v>
+        <v>0.83577782846715332</v>
       </c>
       <c r="C27">
-        <v>95.80602883355176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>95.806028833551764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.7961175529788085</v>
+        <v>0.79611755297880848</v>
       </c>
       <c r="C28">
-        <v>93.70904325032765</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>93.709043250327653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.7813053275390311</v>
+        <v>0.78130532753903115</v>
       </c>
       <c r="C29">
-        <v>97.64089121887287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>97.640891218872866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -833,51 +856,51 @@
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.7575563615674561</v>
+        <v>0.75755636156745609</v>
       </c>
       <c r="C31">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.7575279140886139</v>
+        <v>0.75752791408861386</v>
       </c>
       <c r="C32">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.7441149278145224</v>
+        <v>0.74411492781452238</v>
       </c>
       <c r="C33">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.7183664035274874</v>
+        <v>0.71836640352748737</v>
       </c>
       <c r="C34">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -888,51 +911,51 @@
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.6499359931726051</v>
+        <v>0.64993599317260509</v>
       </c>
       <c r="C36">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.561261645686651</v>
+        <v>0.56126164568665105</v>
       </c>
       <c r="C37">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.5527771851219686</v>
+        <v>0.55277718512196861</v>
       </c>
       <c r="C38">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.4384503235900719</v>
+        <v>0.43845032359007191</v>
       </c>
       <c r="C39">
         <v>99.21363040629096</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -940,7 +963,7 @@
         <v>0.3731675790754258</v>
       </c>
       <c r="C40">
-        <v>95.80602883355176</v>
+        <v>95.806028833551764</v>
       </c>
     </row>
   </sheetData>
